--- a/6.xlsx
+++ b/6.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CS\Desktop\rabota-master\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="26700" windowHeight="13170"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -123,9 +128,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00&quot;р.&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -257,13 +262,7 @@
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -274,14 +273,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -295,24 +310,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -326,6 +331,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -905,7 +913,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -940,7 +948,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1152,7 +1160,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,63 +1176,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="2"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
@@ -1237,343 +1245,343 @@
       <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="9" t="s">
+      <c r="F8" s="18"/>
+      <c r="G8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>3</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>4</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>5</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>6</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <v>7</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="A10" s="7">
         <v>1</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="18">
+      <c r="E10" s="5"/>
+      <c r="F10" s="10">
         <v>5</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="10">
         <v>17000</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="9">
         <f>F10*G10</f>
         <v>85000</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="7">
         <v>2</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="18">
+      <c r="E11" s="5"/>
+      <c r="F11" s="10">
         <v>175.89</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="10">
         <v>5300</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="9">
         <f t="shared" ref="H11:H21" si="0">F11*G11</f>
         <v>932216.99999999988</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <v>3</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="18">
+      <c r="E12" s="5"/>
+      <c r="F12" s="10">
         <v>172</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="10">
         <v>7900</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="9">
         <f t="shared" si="0"/>
         <v>1358800</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="7">
         <v>4</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="18">
+      <c r="E13" s="5"/>
+      <c r="F13" s="10">
         <v>150</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="10">
         <v>7120</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="9">
         <f t="shared" si="0"/>
         <v>1068000</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="A14" s="7">
         <v>5</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="18">
+      <c r="E14" s="5"/>
+      <c r="F14" s="10">
         <v>280</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="10">
         <v>5400</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="9">
         <f t="shared" si="0"/>
         <v>1512000</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="A15" s="7">
         <v>6</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="18">
+      <c r="E15" s="5"/>
+      <c r="F15" s="10">
         <v>46</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="10">
         <v>14900</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="9">
         <f t="shared" si="0"/>
         <v>685400</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+      <c r="A16" s="7">
         <v>7</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="18">
+      <c r="E16" s="5"/>
+      <c r="F16" s="10">
         <v>65</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="10">
         <v>11600</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="9">
         <f t="shared" si="0"/>
         <v>754000</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="A17" s="7">
         <v>8</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="18">
+      <c r="E17" s="5"/>
+      <c r="F17" s="10">
         <v>78</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="10">
         <v>12400</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="9">
         <f t="shared" si="0"/>
         <v>967200</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="A18" s="7">
         <v>9</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="19">
+      <c r="E18" s="5"/>
+      <c r="F18" s="11">
         <v>75</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="10">
         <v>18800</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="9">
         <f t="shared" si="0"/>
         <v>1410000</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+      <c r="A19" s="7">
         <v>10</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="18">
+      <c r="E19" s="5"/>
+      <c r="F19" s="10">
         <v>154.6</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="10">
         <v>21300</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="9">
         <f t="shared" si="0"/>
         <v>3292980</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="A20" s="7">
         <v>11</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="18">
+      <c r="E20" s="5"/>
+      <c r="F20" s="10">
         <v>220</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="10">
         <v>13400</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="9">
         <f t="shared" si="0"/>
         <v>2948000</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="A21" s="7">
         <v>12</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="18">
+      <c r="E21" s="5"/>
+      <c r="F21" s="10">
         <v>145</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="10">
         <v>24800</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="9">
         <f t="shared" si="0"/>
         <v>3596000</v>
       </c>
@@ -1582,158 +1590,163 @@
       <c r="G22" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="9">
         <f>SUM(H10,H11,H12,H13,H15,H16,H17,H18,H19,H21)</f>
         <v>14149597</v>
       </c>
-      <c r="I22" s="21"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H6"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="A29:H29"/>
     <mergeCell ref="A32:D43"/>
@@ -1744,11 +1757,6 @@
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
